--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE80AC64-D35D-439F-A707-6A99929DC806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{825CA49D-1046-4DE4-80EF-4C1D593D93EB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>url</t>
   </si>
@@ -42,10 +42,7 @@
     <t>CNum</t>
   </si>
   <si>
-    <t>ToCity</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>FromCountry</t>
   </si>
   <si>
     <t>UN</t>
@@ -54,22 +51,31 @@
     <t>PW</t>
   </si>
   <si>
+    <t>ShipmentNumber</t>
+  </si>
+  <si>
+    <t>unitNumber</t>
+  </si>
+  <si>
     <t xml:space="preserve"> http://lmk.qa.posten.no</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>SEENG12345</t>
-  </si>
-  <si>
-    <t>Goa</t>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>SenTest112345</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
   <si>
     <t>senna1</t>
   </si>
   <si>
-    <t>Posten@123</t>
+    <t>July@2022#</t>
+  </si>
+  <si>
+    <t>LATEST112345</t>
   </si>
 </sst>
 </file>
@@ -91,10 +97,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,11 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,18 +441,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,31 +472,37 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
-        <v>43674</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>101892</v>
       </c>
     </row>
   </sheetData>
